--- a/documents/spark-ml-feature/spark-feature.xlsx
+++ b/documents/spark-ml-feature/spark-feature.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -407,8 +407,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -541,7 +541,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -576,7 +575,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -752,14 +750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="31.25" customWidth="1"/>
@@ -768,7 +766,7 @@
     <col min="8" max="8" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -786,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -815,7 +813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -840,7 +838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -861,7 +859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -886,7 +884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -909,7 +907,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -934,7 +932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -945,7 +943,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>90</v>
@@ -973,7 +971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -993,7 +991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1013,7 +1011,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1029,7 +1027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -1054,7 +1052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -1079,7 +1077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -1104,7 +1102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
@@ -1126,7 +1124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1148,7 +1146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -1170,7 +1168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>87</v>
@@ -1194,7 +1192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -1217,7 +1215,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1227,7 +1225,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -1247,7 +1245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -1270,7 +1268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1280,7 +1278,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1290,7 +1288,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1300,7 +1298,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1309,15 +1307,15 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1326,7 +1324,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -1349,7 +1347,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1">
@@ -1370,7 +1368,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1380,7 +1378,7 @@
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
@@ -1407,7 +1405,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>86</v>
@@ -1432,7 +1430,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
@@ -1453,7 +1451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
@@ -1474,7 +1472,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1483,7 +1481,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1492,7 +1490,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -1500,15 +1498,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="C41" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="C43" s="1" t="s">
         <v>88</v>
       </c>
@@ -1521,12 +1519,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1534,12 +1532,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/spark-ml-feature/spark-feature.xlsx
+++ b/documents/spark-ml-feature/spark-feature.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -407,8 +407,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -541,6 +541,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -575,6 +576,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -750,14 +752,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="31.25" customWidth="1"/>
@@ -766,7 +768,7 @@
     <col min="8" max="8" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -784,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -813,7 +815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -838,7 +840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -859,7 +861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -884,7 +886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -907,7 +909,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -932,7 +934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -943,7 +945,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>90</v>
@@ -971,7 +973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -991,7 +993,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1011,7 +1013,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1027,7 +1029,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -1052,7 +1054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -1077,7 +1079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -1102,7 +1104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
@@ -1124,7 +1126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1146,7 +1148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -1168,7 +1170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>87</v>
@@ -1192,7 +1194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -1215,7 +1217,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1225,7 +1227,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
@@ -1245,7 +1247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -1268,7 +1270,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1278,7 +1280,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1288,7 +1290,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1298,7 +1300,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1307,15 +1309,15 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1324,7 +1326,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -1347,7 +1349,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1">
@@ -1368,7 +1370,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1378,7 +1380,7 @@
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
@@ -1405,7 +1407,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>86</v>
@@ -1430,7 +1432,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
@@ -1451,7 +1453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
@@ -1472,7 +1474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1481,7 +1483,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1490,7 +1492,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -1498,15 +1500,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C41" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C43" s="1" t="s">
         <v>88</v>
       </c>
@@ -1519,12 +1521,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1532,12 +1534,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
